--- a/results/pvalue_SIDER_rare_pathway_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_pathway_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.06</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>0.928</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.888</t>
+          <t>3.367</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.478</t>
+          <t>2.705</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-4.657</t>
+          <t>-6.678</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>-12.355</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.911</t>
+          <t>9.919</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.424</t>
+          <t>9.431</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.596</t>
+          <t>2.602</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.104</t>
+          <t>-0.097</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.169</t>
+          <t>7.831</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
